--- a/db_design.xlsx
+++ b/db_design.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="21405"/>
+  <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="7470" tabRatio="944" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="20120" windowHeight="7480" tabRatio="944" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="cake_sessions" sheetId="4" r:id="rId1"/>
@@ -100,7 +100,11 @@
     <definedName name="年間">[2]テーブル一覧!#REF!</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -577,11 +581,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -662,40 +666,40 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,38 +707,38 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,17 +747,17 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -762,7 +766,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -770,33 +774,33 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,16 +808,16 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -823,7 +827,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -832,7 +836,7 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -975,6 +979,64 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -987,22 +1049,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1022,48 +1068,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1108,22 +1112,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="タイトル"/>
       <sheetName val="テーブル一覧"/>
-      <sheetName val="インデックス一覧"/>
-      <sheetName val="NAMI_NEWS"/>
-      <sheetName val="NAMI_SPNEWS"/>
-      <sheetName val="Module1"/>
-      <sheetName val="コピー ～ nami_db"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1133,98 +1125,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="表紙"/>
-      <sheetName val="更新履歴"/>
       <sheetName val="テーブル一覧"/>
-      <sheetName val="会員テーブル"/>
-      <sheetName val="退会テーブル"/>
-      <sheetName val="端末マスタ"/>
-      <sheetName val="ユーザー情報テーブル"/>
-      <sheetName val="お気に入り選手テーブル"/>
-      <sheetName val="ユーザー速報メール情報テーブル"/>
-      <sheetName val="お知らせマスタ"/>
-      <sheetName val="TOPマーキーマスタ"/>
-      <sheetName val="レーストピックスマスタ"/>
-      <sheetName val="ビッグレース回顧マスタ"/>
-      <sheetName val="好奇心Q&amp;Aマスタ"/>
-      <sheetName val="好奇心Q&amp;Aカテゴリマスタ"/>
-      <sheetName val="教えてオートのツボマスタ"/>
-      <sheetName val="教えてオートのツボ達人マスタ"/>
-      <sheetName val="マニアック用語辞典マスタ"/>
-      <sheetName val="マニアック用語同義語マスタ"/>
-      <sheetName val="マニアック用語関連語マスタ"/>
-      <sheetName val="解約アンケートテーブル"/>
-      <sheetName val="素材管理テーブル"/>
-      <sheetName val="ユーザーメルマガ情報テーブル"/>
-      <sheetName val="スケジュールマスタ（ｻｲﾄDB管理）"/>
-      <sheetName val="グレードコード表示順マスタ"/>
-      <sheetName val="競走車関連付けマスタ"/>
-      <sheetName val="選手獲得タイトルマスタ"/>
-      <sheetName val="特別記念レースマスタ"/>
-      <sheetName val="選手マスタ"/>
-      <sheetName val="非会員ユーザーTOPスタイルテーブル"/>
-      <sheetName val="なんでも10獲得賞金ランキングテーブル"/>
-      <sheetName val="なんでも10入着率ランキングテーブル"/>
-      <sheetName val="なんでも10雨男ランキングテーブル"/>
-      <sheetName val="なんでも10スタート王ランキングテーブル"/>
-      <sheetName val="なんでも10歴代3連単高配当ﾗﾝｷﾝｸﾞテーブル"/>
-      <sheetName val="予想大王回スケジュールマスタ"/>
-      <sheetName val="予想大王お題レースマスタ"/>
-      <sheetName val="予想大王プロフィールマスタ"/>
-      <sheetName val="予想大王ユーザー投票履歴マスタ"/>
-      <sheetName val="予想大王回別合計獲得金額ランキングマスタ"/>
-      <sheetName val="予想大王回別的中率ランキングマスタ"/>
-      <sheetName val="予想大王通産絶対最高配当ランキングマスタ"/>
-      <sheetName val="ツールユーザー"/>
-      <sheetName val="スタート予想マイデータ"/>
-      <sheetName val="データで並び替えマイ設定"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1529,84 +1433,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="表紙"/>
-      <sheetName val="テーブル一覧"/>
-      <sheetName val="テーブル構成"/>
-      <sheetName val="名づけ名前マスタ"/>
-      <sheetName val="新着体験談"/>
-      <sheetName val="体験談投稿"/>
-      <sheetName val="お気に入り名前リストヘッダ"/>
-      <sheetName val="お気に入り名前リスト"/>
-      <sheetName val="WK_WP名前情報"/>
-      <sheetName val="名前一覧"/>
-      <sheetName val="WK_お気に入り名前リスト"/>
-      <sheetName val="プロパティ"/>
-      <sheetName val="促進メール配信状況"/>
-      <sheetName val="非推奨名前マスタ"/>
-      <sheetName val="画数マスタ"/>
-      <sheetName val="除外名前ログ"/>
-      <sheetName val="WK_WP家族情報"/>
-      <sheetName val="総格鑑定マスタ"/>
-      <sheetName val="違反項目マスタ"/>
       <sheetName val="データ"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19">
-        <row r="2">
-          <cell r="L2" t="str">
-            <v>BDB</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="L3" t="str">
-            <v>HEAP</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="L4" t="str">
-            <v>ISAM</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5" t="str">
-            <v>InnoDB</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6" t="str">
-            <v>MERGE</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="L7" t="str">
-            <v>MRG_MYISAM</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="L8" t="str">
-            <v>MYISAM</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1961,17 +1791,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="12" customHeight="1">
@@ -1997,42 +1827,42 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="12">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
-    </row>
-    <row r="5" spans="1:10" s="18" customFormat="1" ht="12">
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45"/>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="14">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="48"/>
+    </row>
+    <row r="5" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -2049,12 +1879,12 @@
         <v>9</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="1:10" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="10">
@@ -2071,10 +1901,10 @@
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="51"/>
     </row>
     <row r="7" spans="1:10" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="10">
@@ -2091,12 +1921,12 @@
       <c r="F7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62"/>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="12">
+      <c r="G7" s="52"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="54"/>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="14">
       <c r="A8" s="4"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
@@ -2108,7 +1938,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="12">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="14">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -2123,63 +1953,53 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47" t="s">
+      <c r="D10" s="58"/>
+      <c r="E10" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="12">
-      <c r="A11" s="43"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="14">
+      <c r="A11" s="40"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="12">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="14">
       <c r="A12" s="8">
         <v>1</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="A10:A11"/>
@@ -2187,6 +2007,16 @@
     <mergeCell ref="C10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:G11"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -2195,21 +2025,26 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="12" customHeight="1">
@@ -2235,42 +2070,42 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="12">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
-    </row>
-    <row r="5" spans="1:10" s="18" customFormat="1" ht="12">
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45"/>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="14">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="48"/>
+    </row>
+    <row r="5" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -2287,12 +2122,12 @@
         <v>9</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="1:10" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="10">
@@ -2311,10 +2146,10 @@
       <c r="F6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="57"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="51"/>
     </row>
     <row r="7" spans="1:10" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="10">
@@ -2333,12 +2168,12 @@
       <c r="F7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62"/>
-    </row>
-    <row r="8" spans="1:10" s="18" customFormat="1" ht="12">
+      <c r="G7" s="52"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="54"/>
+    </row>
+    <row r="8" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A8" s="10">
         <v>4</v>
       </c>
@@ -2355,12 +2190,12 @@
         <v>70</v>
       </c>
       <c r="F8" s="19"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="62"/>
-    </row>
-    <row r="9" spans="1:10" s="18" customFormat="1" ht="12">
+      <c r="G8" s="52"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
+    </row>
+    <row r="9" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A9" s="10">
         <v>5</v>
       </c>
@@ -2375,12 +2210,12 @@
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="19"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="62"/>
-    </row>
-    <row r="10" spans="1:10" s="18" customFormat="1" ht="12">
+      <c r="G9" s="52"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="54"/>
+    </row>
+    <row r="10" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A10" s="10">
         <v>6</v>
       </c>
@@ -2395,12 +2230,12 @@
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="19"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="62"/>
-    </row>
-    <row r="11" spans="1:10" s="18" customFormat="1" ht="12">
+      <c r="G10" s="52"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="54"/>
+    </row>
+    <row r="11" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A11" s="10">
         <v>7</v>
       </c>
@@ -2415,12 +2250,12 @@
       <c r="F11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="62"/>
-    </row>
-    <row r="12" spans="1:10" s="18" customFormat="1" ht="12">
+      <c r="G11" s="52"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="54"/>
+    </row>
+    <row r="12" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A12" s="10">
         <v>8</v>
       </c>
@@ -2435,12 +2270,12 @@
       <c r="F12" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="62"/>
-    </row>
-    <row r="13" spans="1:10" s="18" customFormat="1" ht="12">
+      <c r="G12" s="52"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="54"/>
+    </row>
+    <row r="13" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A13" s="10">
         <v>9</v>
       </c>
@@ -2455,12 +2290,12 @@
       <c r="F13" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="62"/>
-    </row>
-    <row r="14" spans="1:10" s="18" customFormat="1" ht="12">
+      <c r="G13" s="52"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
+    </row>
+    <row r="14" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A14" s="10">
         <v>10</v>
       </c>
@@ -2475,12 +2310,12 @@
       <c r="F14" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="62"/>
-    </row>
-    <row r="15" spans="1:10" s="18" customFormat="1" ht="12">
+      <c r="G14" s="52"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="54"/>
+    </row>
+    <row r="15" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A15" s="10">
         <v>11</v>
       </c>
@@ -2495,12 +2330,12 @@
       <c r="F15" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="60"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="62"/>
-    </row>
-    <row r="16" spans="1:10" s="18" customFormat="1" ht="12">
+      <c r="G15" s="52"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="54"/>
+    </row>
+    <row r="16" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A16" s="10">
         <v>12</v>
       </c>
@@ -2515,12 +2350,12 @@
       <c r="F16" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="60"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="62"/>
-    </row>
-    <row r="17" spans="1:10" s="18" customFormat="1" ht="12">
+      <c r="G16" s="52"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="54"/>
+    </row>
+    <row r="17" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A17" s="10">
         <v>13</v>
       </c>
@@ -2535,12 +2370,12 @@
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="28"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="62"/>
-    </row>
-    <row r="18" spans="1:10" s="18" customFormat="1" ht="12">
+      <c r="G17" s="52"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="54"/>
+    </row>
+    <row r="18" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A18" s="10">
         <v>14</v>
       </c>
@@ -2555,12 +2390,12 @@
       <c r="F18" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="62"/>
-    </row>
-    <row r="19" spans="1:10" s="1" customFormat="1" ht="12">
+      <c r="G18" s="52"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="54"/>
+    </row>
+    <row r="19" spans="1:10" s="1" customFormat="1" ht="14">
       <c r="A19" s="4"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
@@ -2572,7 +2407,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" s="1" customFormat="1" ht="12">
+    <row r="20" spans="1:10" s="1" customFormat="1" ht="14">
       <c r="A20" s="4" t="s">
         <v>2</v>
       </c>
@@ -2587,58 +2422,64 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="46"/>
-      <c r="E21" s="47" t="s">
+      <c r="D21" s="58"/>
+      <c r="E21" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10" s="1" customFormat="1" ht="12">
-      <c r="A22" s="43"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
+    <row r="22" spans="1:10" s="1" customFormat="1" ht="14">
+      <c r="A22" s="40"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10" s="1" customFormat="1" ht="12">
+    <row r="23" spans="1:10" s="1" customFormat="1" ht="14">
       <c r="A23" s="8">
         <v>1</v>
       </c>
       <c r="B23" s="9"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="40"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="56"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:G22"/>
     <mergeCell ref="G14:J14"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:J4"/>
@@ -2651,17 +2492,11 @@
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="G12:J12"/>
     <mergeCell ref="G13:J13"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:G22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -2670,21 +2505,26 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B42" workbookViewId="0">
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="12" customHeight="1">
@@ -2710,42 +2550,42 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="12">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
-    </row>
-    <row r="5" spans="1:10" s="18" customFormat="1" ht="12">
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45"/>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="14">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="48"/>
+    </row>
+    <row r="5" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -2762,12 +2602,12 @@
         <v>9</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="1:10" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="10">
@@ -2784,12 +2624,12 @@
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="51"/>
     </row>
     <row r="7" spans="1:10" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="10">
@@ -2806,14 +2646,14 @@
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="21"/>
-      <c r="G7" s="57" t="s">
+      <c r="G7" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59"/>
-    </row>
-    <row r="8" spans="1:10" s="18" customFormat="1" ht="12">
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="51"/>
+    </row>
+    <row r="8" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A8" s="10">
         <v>4</v>
       </c>
@@ -2828,12 +2668,12 @@
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="59"/>
-    </row>
-    <row r="9" spans="1:10" s="18" customFormat="1" ht="12">
+      <c r="G8" s="49"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="51"/>
+    </row>
+    <row r="9" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A9" s="10">
         <v>5</v>
       </c>
@@ -2848,12 +2688,12 @@
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="19"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59"/>
-    </row>
-    <row r="10" spans="1:10" s="18" customFormat="1" ht="12">
+      <c r="G9" s="49"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="51"/>
+    </row>
+    <row r="10" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A10" s="10">
         <v>6</v>
       </c>
@@ -2868,12 +2708,12 @@
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="19"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="59"/>
-    </row>
-    <row r="11" spans="1:10" s="18" customFormat="1" ht="12">
+      <c r="G10" s="49"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51"/>
+    </row>
+    <row r="11" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A11" s="10">
         <v>7</v>
       </c>
@@ -2888,12 +2728,12 @@
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="21"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="59"/>
-    </row>
-    <row r="12" spans="1:10" s="18" customFormat="1" ht="12">
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="51"/>
+    </row>
+    <row r="12" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A12" s="10">
         <v>8</v>
       </c>
@@ -2908,12 +2748,12 @@
       </c>
       <c r="E12" s="30"/>
       <c r="F12" s="21"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="59"/>
-    </row>
-    <row r="13" spans="1:10" s="18" customFormat="1" ht="12">
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="51"/>
+    </row>
+    <row r="13" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A13" s="10">
         <v>9</v>
       </c>
@@ -2928,12 +2768,12 @@
       </c>
       <c r="E13" s="30"/>
       <c r="F13" s="21"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59"/>
-    </row>
-    <row r="14" spans="1:10" s="18" customFormat="1" ht="12">
+      <c r="G13" s="49"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="51"/>
+    </row>
+    <row r="14" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A14" s="10">
         <v>10</v>
       </c>
@@ -2948,12 +2788,12 @@
       <c r="F14" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="57"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="59"/>
-    </row>
-    <row r="15" spans="1:10" s="18" customFormat="1" ht="12">
+      <c r="G14" s="49"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="51"/>
+    </row>
+    <row r="15" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A15" s="10">
         <v>11</v>
       </c>
@@ -2968,12 +2808,12 @@
       <c r="F15" s="21">
         <v>0</v>
       </c>
-      <c r="G15" s="57"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="59"/>
-    </row>
-    <row r="16" spans="1:10" s="18" customFormat="1" ht="12">
+      <c r="G15" s="49"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="51"/>
+    </row>
+    <row r="16" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A16" s="10">
         <v>12</v>
       </c>
@@ -2988,12 +2828,12 @@
       <c r="F16" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="57"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="59"/>
-    </row>
-    <row r="17" spans="1:10" s="18" customFormat="1" ht="12">
+      <c r="G16" s="49"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="51"/>
+    </row>
+    <row r="17" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A17" s="10">
         <v>13</v>
       </c>
@@ -3015,7 +2855,7 @@
       <c r="I17" s="16"/>
       <c r="J17" s="17"/>
     </row>
-    <row r="18" spans="1:10" s="18" customFormat="1" ht="12">
+    <row r="18" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A18" s="10">
         <v>14</v>
       </c>
@@ -3037,7 +2877,7 @@
       <c r="I18" s="23"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" s="18" customFormat="1" ht="12">
+    <row r="19" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A19" s="10">
         <v>15</v>
       </c>
@@ -3052,12 +2892,12 @@
       </c>
       <c r="E19" s="30"/>
       <c r="F19" s="28"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="59"/>
-    </row>
-    <row r="20" spans="1:10" s="18" customFormat="1" ht="12">
+      <c r="G19" s="49"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="51"/>
+    </row>
+    <row r="20" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A20" s="10">
         <v>16</v>
       </c>
@@ -3072,12 +2912,12 @@
       <c r="F20" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="57"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="59"/>
-    </row>
-    <row r="21" spans="1:10" s="1" customFormat="1" ht="12">
+      <c r="G20" s="49"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="51"/>
+    </row>
+    <row r="21" spans="1:10" s="1" customFormat="1" ht="14">
       <c r="A21" s="4"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
@@ -3089,7 +2929,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10" s="1" customFormat="1" ht="12">
+    <row r="22" spans="1:10" s="1" customFormat="1" ht="14">
       <c r="A22" s="4" t="s">
         <v>2</v>
       </c>
@@ -3104,47 +2944,47 @@
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="47" t="s">
+      <c r="D23" s="58"/>
+      <c r="E23" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" s="1" customFormat="1" ht="12">
-      <c r="A24" s="43"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
+    <row r="24" spans="1:10" s="1" customFormat="1" ht="14">
+      <c r="A24" s="40"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" s="1" customFormat="1" ht="12">
+    <row r="25" spans="1:10" s="1" customFormat="1" ht="14">
       <c r="A25" s="8">
         <v>1</v>
       </c>
       <c r="B25" s="9"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="40"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -3562,11 +3402,17 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:G24"/>
     <mergeCell ref="G14:J14"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:J4"/>
@@ -3579,17 +3425,11 @@
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="G12:J12"/>
     <mergeCell ref="G13:J13"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:G24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -3598,22 +3438,27 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="12" customHeight="1">
@@ -3639,42 +3484,42 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="12">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
-    </row>
-    <row r="5" spans="1:12" s="18" customFormat="1" ht="12">
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45"/>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="14">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="48"/>
+    </row>
+    <row r="5" spans="1:12" s="18" customFormat="1" ht="14">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -3691,12 +3536,12 @@
         <v>9</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="1:12" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="10">
@@ -3715,12 +3560,12 @@
       <c r="F6" s="21">
         <v>2</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="51"/>
     </row>
     <row r="7" spans="1:12" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="10">
@@ -3746,7 +3591,7 @@
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="12">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="14">
       <c r="A8" s="4"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
@@ -3760,7 +3605,7 @@
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="12">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="14">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -3775,17 +3620,17 @@
       <c r="J9" s="68"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47" t="s">
+      <c r="D10" s="58"/>
+      <c r="E10" s="59" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="33"/>
@@ -3794,25 +3639,25 @@
       <c r="I10" s="67"/>
       <c r="J10" s="68"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="12">
-      <c r="A11" s="43"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="48"/>
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="14">
+      <c r="A11" s="40"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="60"/>
       <c r="F11" s="34"/>
       <c r="G11" s="66"/>
       <c r="H11" s="67"/>
       <c r="I11" s="67"/>
       <c r="J11" s="68"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="12">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="14">
       <c r="A12" s="8">
         <v>1</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
       <c r="E12" s="5"/>
       <c r="F12" s="35"/>
       <c r="G12" s="66"/>
@@ -3858,6 +3703,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G7:J18"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:J4"/>
     <mergeCell ref="G5:J5"/>
@@ -3867,12 +3718,6 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G7:J18"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -3881,21 +3726,26 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="12" customHeight="1">
@@ -3921,42 +3771,42 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="12">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
-    </row>
-    <row r="5" spans="1:12" s="18" customFormat="1" ht="12">
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45"/>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="14">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="48"/>
+    </row>
+    <row r="5" spans="1:12" s="18" customFormat="1" ht="14">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -3973,12 +3823,12 @@
         <v>9</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="1:12" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="10">
@@ -3995,12 +3845,12 @@
       <c r="F6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="51"/>
     </row>
     <row r="7" spans="1:12" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="10">
@@ -4026,7 +3876,7 @@
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="12">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="14">
       <c r="A8" s="4"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
@@ -4040,7 +3890,7 @@
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="12">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="14">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -4055,17 +3905,17 @@
       <c r="J9" s="68"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47" t="s">
+      <c r="D10" s="58"/>
+      <c r="E10" s="59" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="33"/>
@@ -4074,25 +3924,25 @@
       <c r="I10" s="67"/>
       <c r="J10" s="68"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="12">
-      <c r="A11" s="43"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="48"/>
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="14">
+      <c r="A11" s="40"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="60"/>
       <c r="F11" s="34"/>
       <c r="G11" s="66"/>
       <c r="H11" s="67"/>
       <c r="I11" s="67"/>
       <c r="J11" s="68"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="12">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="14">
       <c r="A12" s="8">
         <v>1</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
       <c r="E12" s="5"/>
       <c r="F12" s="35"/>
       <c r="G12" s="66"/>
@@ -4138,6 +3988,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G7:J18"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:D11"/>
@@ -4147,12 +4003,6 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G7:J18"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -4161,21 +4011,26 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="12" customHeight="1">
@@ -4201,42 +4056,42 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="12">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
-    </row>
-    <row r="5" spans="1:12" s="18" customFormat="1" ht="12">
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45"/>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="14">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="48"/>
+    </row>
+    <row r="5" spans="1:12" s="18" customFormat="1" ht="14">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -4253,12 +4108,12 @@
         <v>9</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="1:12" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="10">
@@ -4275,12 +4130,12 @@
       <c r="F6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="51"/>
     </row>
     <row r="7" spans="1:12" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="10">
@@ -4306,7 +4161,7 @@
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="12">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="14">
       <c r="A8" s="4"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
@@ -4320,7 +4175,7 @@
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="12">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="14">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -4335,17 +4190,17 @@
       <c r="J9" s="68"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47" t="s">
+      <c r="D10" s="58"/>
+      <c r="E10" s="59" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="33"/>
@@ -4354,25 +4209,25 @@
       <c r="I10" s="67"/>
       <c r="J10" s="68"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="12">
-      <c r="A11" s="43"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="48"/>
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="14">
+      <c r="A11" s="40"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="60"/>
       <c r="F11" s="34"/>
       <c r="G11" s="66"/>
       <c r="H11" s="67"/>
       <c r="I11" s="67"/>
       <c r="J11" s="68"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="12">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="14">
       <c r="A12" s="8">
         <v>1</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
       <c r="E12" s="5"/>
       <c r="F12" s="35"/>
       <c r="G12" s="66"/>
@@ -4418,21 +4273,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G7:J18"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G7:J18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -4441,21 +4296,26 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="12" customHeight="1">
@@ -4481,42 +4341,42 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="12">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
-    </row>
-    <row r="5" spans="1:12" s="18" customFormat="1" ht="12">
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45"/>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="14">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="48"/>
+    </row>
+    <row r="5" spans="1:12" s="18" customFormat="1" ht="14">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -4533,12 +4393,12 @@
         <v>9</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="1:12" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="10">
@@ -4555,12 +4415,12 @@
       <c r="F6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="51"/>
     </row>
     <row r="7" spans="1:12" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="10">
@@ -4586,7 +4446,7 @@
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="12">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="14">
       <c r="A8" s="4"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
@@ -4600,7 +4460,7 @@
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="12">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="14">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -4615,17 +4475,17 @@
       <c r="J9" s="68"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47" t="s">
+      <c r="D10" s="58"/>
+      <c r="E10" s="59" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="33"/>
@@ -4634,25 +4494,25 @@
       <c r="I10" s="67"/>
       <c r="J10" s="68"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="12">
-      <c r="A11" s="43"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="48"/>
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="14">
+      <c r="A11" s="40"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="60"/>
       <c r="F11" s="34"/>
       <c r="G11" s="66"/>
       <c r="H11" s="67"/>
       <c r="I11" s="67"/>
       <c r="J11" s="68"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="12">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="14">
       <c r="A12" s="8">
         <v>1</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
       <c r="E12" s="5"/>
       <c r="F12" s="35"/>
       <c r="G12" s="66"/>
@@ -4698,21 +4558,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G7:J18"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G7:J18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -4721,22 +4581,27 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
@@ -4756,40 +4621,40 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="10">
@@ -4808,12 +4673,12 @@
         <v>9</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="10">
@@ -4830,12 +4695,12 @@
       <c r="F6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="51"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4"/>
@@ -4856,27 +4721,27 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47" t="s">
+      <c r="D9" s="58"/>
+      <c r="E9" s="59" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="43"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="48"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="60"/>
       <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:10">
@@ -4884,18 +4749,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
       <c r="E11" s="5"/>
       <c r="F11" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:J4"/>
     <mergeCell ref="G5:J5"/>
@@ -4905,6 +4765,11 @@
     <mergeCell ref="C9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -4913,21 +4778,26 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="12" customHeight="1">
@@ -4953,42 +4823,42 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="12">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
-    </row>
-    <row r="5" spans="1:12" s="18" customFormat="1" ht="12">
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45"/>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="14">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="48"/>
+    </row>
+    <row r="5" spans="1:12" s="18" customFormat="1" ht="14">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -5005,12 +4875,12 @@
         <v>9</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="1:12" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="10">
@@ -5036,7 +4906,7 @@
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="12">
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="14">
       <c r="A7" s="4"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
@@ -5050,7 +4920,7 @@
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="12">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="14">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5065,17 +4935,17 @@
       <c r="J8" s="68"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47" t="s">
+      <c r="D9" s="58"/>
+      <c r="E9" s="59" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="33"/>
@@ -5084,25 +4954,25 @@
       <c r="I9" s="67"/>
       <c r="J9" s="68"/>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="12">
-      <c r="A10" s="43"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="48"/>
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="14">
+      <c r="A10" s="40"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="60"/>
       <c r="F10" s="34"/>
       <c r="G10" s="66"/>
       <c r="H10" s="67"/>
       <c r="I10" s="67"/>
       <c r="J10" s="68"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="12">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="14">
       <c r="A11" s="8">
         <v>1</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
       <c r="E11" s="5"/>
       <c r="F11" s="35"/>
       <c r="G11" s="66"/>
@@ -5148,6 +5018,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G6:J17"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:J4"/>
@@ -5156,12 +5032,6 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="G6:J17"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -5170,5 +5040,10 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/db_design.xlsx
+++ b/db_design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="21405"/>
   <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="20120" windowHeight="7480" tabRatio="944" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="944" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cake_sessions" sheetId="4" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="117">
   <si>
     <t>NO</t>
     <phoneticPr fontId="2"/>
@@ -577,6 +577,15 @@
     <t>606: бэлэг бусад</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>TINYINT UNSIGNED</t>
+  </si>
+  <si>
+    <t>0: user, 1: admin</t>
+  </si>
 </sst>
 </file>
 
@@ -585,7 +594,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -628,6 +637,22 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -834,7 +859,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -843,8 +868,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -979,6 +1006,18 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -995,6 +1034,26 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1037,38 +1096,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1096,11 +1123,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="Calc Currency (0)" xfId="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Header1" xfId="2"/>
     <cellStyle name="Header2" xfId="3"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1827,40 +1859,40 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="45"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="14">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="48"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A5" s="10">
@@ -1879,12 +1911,12 @@
         <v>9</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="59"/>
     </row>
     <row r="6" spans="1:10" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="10">
@@ -1901,10 +1933,10 @@
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="59"/>
     </row>
     <row r="7" spans="1:10" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="10">
@@ -1921,10 +1953,10 @@
       <c r="F7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="54"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62"/>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="14">
       <c r="A8" s="4"/>
@@ -1953,33 +1985,33 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="59" t="s">
+      <c r="D10" s="46"/>
+      <c r="E10" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="14">
-      <c r="A11" s="40"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -1989,17 +2021,27 @@
         <v>1</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="A10:A11"/>
@@ -2007,16 +2049,6 @@
     <mergeCell ref="C10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:G11"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -2035,10 +2067,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -2070,40 +2102,40 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="45"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="14">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="48"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A5" s="10">
@@ -2122,12 +2154,12 @@
         <v>9</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="59"/>
     </row>
     <row r="6" spans="1:10" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="10">
@@ -2146,10 +2178,10 @@
       <c r="F6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="59"/>
     </row>
     <row r="7" spans="1:10" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="10">
@@ -2168,39 +2200,41 @@
       <c r="F7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="54"/>
-    </row>
-    <row r="8" spans="1:10" s="18" customFormat="1" ht="14">
+      <c r="G7" s="60"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62"/>
+    </row>
+    <row r="8" spans="1:10" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="10">
         <v>4</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>19</v>
+        <v>114</v>
+      </c>
+      <c r="C8" s="72" t="s">
+        <v>115</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="54"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="31">
+        <v>0</v>
+      </c>
+      <c r="G8" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="59"/>
     </row>
     <row r="9" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A9" s="10">
         <v>5</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>19</v>
@@ -2208,19 +2242,21 @@
       <c r="D9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="29"/>
+      <c r="E9" s="29" t="s">
+        <v>70</v>
+      </c>
       <c r="F9" s="19"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="54"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="62"/>
     </row>
     <row r="10" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A10" s="10">
         <v>6</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>19</v>
@@ -2230,37 +2266,37 @@
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="19"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="54"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="62"/>
     </row>
     <row r="11" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A11" s="10">
         <v>7</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="52"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
+      <c r="D11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="62"/>
     </row>
     <row r="12" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A12" s="10">
         <v>8</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>19</v>
@@ -2270,17 +2306,17 @@
       <c r="F12" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="62"/>
     </row>
     <row r="13" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A13" s="10">
         <v>9</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>19</v>
@@ -2290,17 +2326,17 @@
       <c r="F13" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="52"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="62"/>
     </row>
     <row r="14" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A14" s="10">
         <v>10</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>19</v>
@@ -2310,107 +2346,113 @@
       <c r="F14" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="52"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="62"/>
     </row>
     <row r="15" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A15" s="10">
         <v>11</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="30"/>
       <c r="F15" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="52"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="54"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="62"/>
     </row>
     <row r="16" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A16" s="10">
         <v>12</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="30"/>
       <c r="F16" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="52"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="54"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="62"/>
     </row>
     <row r="17" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A17" s="10">
         <v>13</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>13</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D17" s="13"/>
       <c r="E17" s="30"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="54"/>
+      <c r="F17" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="60"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="62"/>
     </row>
     <row r="18" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A18" s="10">
         <v>14</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="E18" s="30"/>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="28"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="62"/>
+    </row>
+    <row r="19" spans="1:10" s="18" customFormat="1" ht="14">
+      <c r="A19" s="10">
+        <v>15</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
-    </row>
-    <row r="19" spans="1:10" s="1" customFormat="1" ht="14">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="62"/>
     </row>
     <row r="20" spans="1:10" s="1" customFormat="1" ht="14">
-      <c r="A20" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="A20" s="4"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -2421,90 +2463,106 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A21" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
+    <row r="21" spans="1:10" s="1" customFormat="1" ht="14">
+      <c r="A21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10" s="1" customFormat="1" ht="14">
-      <c r="A22" s="40"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
+    <row r="22" spans="1:10" s="1" customFormat="1" ht="12" customHeight="1">
+      <c r="A22" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="46"/>
+      <c r="E22" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" ht="14">
-      <c r="A23" s="8">
-        <v>1</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
+    <row r="24" spans="1:10" s="1" customFormat="1" ht="14">
+      <c r="A24" s="8">
+        <v>1</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
+  <mergeCells count="29">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:G22"/>
-    <mergeCell ref="G14:J14"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:J4"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G8:J8"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="G12:J12"/>
     <mergeCell ref="G13:J13"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:G23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
       <formula1>区分</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2517,7 +2575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B42" workbookViewId="0">
+    <sheetView topLeftCell="B42" workbookViewId="0">
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
@@ -2550,40 +2608,40 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="45"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="14">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="48"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A5" s="10">
@@ -2602,12 +2660,12 @@
         <v>9</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="59"/>
     </row>
     <row r="6" spans="1:10" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="10">
@@ -2624,12 +2682,12 @@
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="59"/>
     </row>
     <row r="7" spans="1:10" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="10">
@@ -2646,12 +2704,12 @@
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="21"/>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="51"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="59"/>
     </row>
     <row r="8" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A8" s="10">
@@ -2668,10 +2726,10 @@
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="51"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="59"/>
     </row>
     <row r="9" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A9" s="10">
@@ -2688,10 +2746,10 @@
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="19"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="51"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="59"/>
     </row>
     <row r="10" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A10" s="10">
@@ -2708,10 +2766,10 @@
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="19"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="51"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="59"/>
     </row>
     <row r="11" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A11" s="10">
@@ -2728,10 +2786,10 @@
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="21"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="51"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="59"/>
     </row>
     <row r="12" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A12" s="10">
@@ -2748,10 +2806,10 @@
       </c>
       <c r="E12" s="30"/>
       <c r="F12" s="21"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="51"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="59"/>
     </row>
     <row r="13" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A13" s="10">
@@ -2768,10 +2826,10 @@
       </c>
       <c r="E13" s="30"/>
       <c r="F13" s="21"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="51"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="59"/>
     </row>
     <row r="14" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A14" s="10">
@@ -2788,10 +2846,10 @@
       <c r="F14" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="49"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="51"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="59"/>
     </row>
     <row r="15" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A15" s="10">
@@ -2808,10 +2866,10 @@
       <c r="F15" s="21">
         <v>0</v>
       </c>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="51"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="59"/>
     </row>
     <row r="16" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A16" s="10">
@@ -2828,10 +2886,10 @@
       <c r="F16" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="51"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="59"/>
     </row>
     <row r="17" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A17" s="10">
@@ -2892,10 +2950,10 @@
       </c>
       <c r="E19" s="30"/>
       <c r="F19" s="28"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="51"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="59"/>
     </row>
     <row r="20" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A20" s="10">
@@ -2912,10 +2970,10 @@
       <c r="F20" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="49"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="51"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="59"/>
     </row>
     <row r="21" spans="1:10" s="1" customFormat="1" ht="14">
       <c r="A21" s="4"/>
@@ -2944,33 +3002,33 @@
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="59" t="s">
+      <c r="D23" s="46"/>
+      <c r="E23" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1" ht="14">
-      <c r="A24" s="40"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -2980,11 +3038,11 @@
         <v>1</v>
       </c>
       <c r="B25" s="9"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="56"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -3402,17 +3460,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:G24"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="G14:J14"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:J4"/>
@@ -3425,11 +3477,17 @@
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="G12:J12"/>
     <mergeCell ref="G13:J13"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:G24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -3484,40 +3542,40 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="45"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="14">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="48"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:12" s="18" customFormat="1" ht="14">
       <c r="A5" s="10">
@@ -3536,12 +3594,12 @@
         <v>9</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="59"/>
     </row>
     <row r="6" spans="1:12" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="10">
@@ -3560,12 +3618,12 @@
       <c r="F6" s="21">
         <v>2</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="59"/>
     </row>
     <row r="7" spans="1:12" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="10">
@@ -3620,17 +3678,17 @@
       <c r="J9" s="68"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="59" t="s">
+      <c r="D10" s="46"/>
+      <c r="E10" s="47" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="33"/>
@@ -3640,11 +3698,11 @@
       <c r="J10" s="68"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="14">
-      <c r="A11" s="40"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="60"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="48"/>
       <c r="F11" s="34"/>
       <c r="G11" s="66"/>
       <c r="H11" s="67"/>
@@ -3656,8 +3714,8 @@
         <v>1</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="5"/>
       <c r="F12" s="35"/>
       <c r="G12" s="66"/>
@@ -3703,12 +3761,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G7:J18"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:J4"/>
     <mergeCell ref="G5:J5"/>
@@ -3718,6 +3770,12 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G7:J18"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -3771,40 +3829,40 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="45"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="14">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="48"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:12" s="18" customFormat="1" ht="14">
       <c r="A5" s="10">
@@ -3823,12 +3881,12 @@
         <v>9</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="59"/>
     </row>
     <row r="6" spans="1:12" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="10">
@@ -3845,12 +3903,12 @@
       <c r="F6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="59"/>
     </row>
     <row r="7" spans="1:12" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="10">
@@ -3905,17 +3963,17 @@
       <c r="J9" s="68"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="59" t="s">
+      <c r="D10" s="46"/>
+      <c r="E10" s="47" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="33"/>
@@ -3925,11 +3983,11 @@
       <c r="J10" s="68"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="14">
-      <c r="A11" s="40"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="60"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="48"/>
       <c r="F11" s="34"/>
       <c r="G11" s="66"/>
       <c r="H11" s="67"/>
@@ -3941,8 +3999,8 @@
         <v>1</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="5"/>
       <c r="F12" s="35"/>
       <c r="G12" s="66"/>
@@ -3988,12 +4046,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G7:J18"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:D11"/>
@@ -4003,6 +4055,12 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G7:J18"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -4056,40 +4114,40 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="45"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="14">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="48"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:12" s="18" customFormat="1" ht="14">
       <c r="A5" s="10">
@@ -4108,12 +4166,12 @@
         <v>9</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="59"/>
     </row>
     <row r="6" spans="1:12" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="10">
@@ -4130,12 +4188,12 @@
       <c r="F6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="59"/>
     </row>
     <row r="7" spans="1:12" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="10">
@@ -4190,17 +4248,17 @@
       <c r="J9" s="68"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="59" t="s">
+      <c r="D10" s="46"/>
+      <c r="E10" s="47" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="33"/>
@@ -4210,11 +4268,11 @@
       <c r="J10" s="68"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="14">
-      <c r="A11" s="40"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="60"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="48"/>
       <c r="F11" s="34"/>
       <c r="G11" s="66"/>
       <c r="H11" s="67"/>
@@ -4226,8 +4284,8 @@
         <v>1</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="5"/>
       <c r="F12" s="35"/>
       <c r="G12" s="66"/>
@@ -4273,21 +4331,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:J4"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="G7:J18"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -4341,40 +4399,40 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="45"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="14">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="48"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:12" s="18" customFormat="1" ht="14">
       <c r="A5" s="10">
@@ -4393,12 +4451,12 @@
         <v>9</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="59"/>
     </row>
     <row r="6" spans="1:12" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="10">
@@ -4415,12 +4473,12 @@
       <c r="F6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="59"/>
     </row>
     <row r="7" spans="1:12" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="10">
@@ -4475,17 +4533,17 @@
       <c r="J9" s="68"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="59" t="s">
+      <c r="D10" s="46"/>
+      <c r="E10" s="47" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="33"/>
@@ -4495,11 +4553,11 @@
       <c r="J10" s="68"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="14">
-      <c r="A11" s="40"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="60"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="48"/>
       <c r="F11" s="34"/>
       <c r="G11" s="66"/>
       <c r="H11" s="67"/>
@@ -4511,8 +4569,8 @@
         <v>1</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="5"/>
       <c r="F12" s="35"/>
       <c r="G12" s="66"/>
@@ -4558,21 +4616,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:J4"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="G7:J18"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -4621,40 +4679,40 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="45"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="48"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="10">
@@ -4673,12 +4731,12 @@
         <v>9</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="59"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="10">
@@ -4695,12 +4753,12 @@
       <c r="F6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="59"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4"/>
@@ -4721,27 +4779,27 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="59" t="s">
+      <c r="D9" s="46"/>
+      <c r="E9" s="47" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="40"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="60"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="48"/>
       <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:10">
@@ -4749,13 +4807,18 @@
         <v>1</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="5"/>
       <c r="F11" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:J4"/>
     <mergeCell ref="G5:J5"/>
@@ -4765,11 +4828,6 @@
     <mergeCell ref="C9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -4823,40 +4881,40 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="45"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="14">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="48"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:12" s="18" customFormat="1" ht="14">
       <c r="A5" s="10">
@@ -4875,12 +4933,12 @@
         <v>9</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="59"/>
     </row>
     <row r="6" spans="1:12" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="10">
@@ -4935,17 +4993,17 @@
       <c r="J8" s="68"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="59" t="s">
+      <c r="D9" s="46"/>
+      <c r="E9" s="47" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="33"/>
@@ -4955,11 +5013,11 @@
       <c r="J9" s="68"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="14">
-      <c r="A10" s="40"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="60"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="48"/>
       <c r="F10" s="34"/>
       <c r="G10" s="66"/>
       <c r="H10" s="67"/>
@@ -4971,8 +5029,8 @@
         <v>1</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="5"/>
       <c r="F11" s="35"/>
       <c r="G11" s="66"/>
@@ -5018,12 +5076,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="G6:J17"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:J4"/>
@@ -5032,6 +5084,12 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G6:J17"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">

--- a/db_design.xlsx
+++ b/db_design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="21405"/>
   <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="944" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="944" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="cake_sessions" sheetId="4" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="116">
   <si>
     <t>NO</t>
     <phoneticPr fontId="2"/>
@@ -530,14 +530,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>604: бэлэг төрсөн өдрийн бэлэг</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>605: бэлэг хуримын бэлэг</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>701: бусад тоног төхөөрөмж</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -574,10 +566,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>606: бэлэг бусад</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>role</t>
   </si>
   <si>
@@ -585,6 +573,12 @@
   </si>
   <si>
     <t>0: user, 1: admin</t>
+  </si>
+  <si>
+    <t>604: бэлэг хуримын бэлэг</t>
+  </si>
+  <si>
+    <t>605: бэлэг бусад</t>
   </si>
 </sst>
 </file>
@@ -1006,6 +1000,67 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1018,22 +1073,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1054,48 +1093,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1122,9 +1119,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1859,40 +1853,40 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="46"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="14">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="49"/>
     </row>
     <row r="5" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A5" s="10">
@@ -1911,12 +1905,12 @@
         <v>9</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="52"/>
     </row>
     <row r="6" spans="1:10" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="10">
@@ -1933,10 +1927,10 @@
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="52"/>
     </row>
     <row r="7" spans="1:10" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="10">
@@ -1953,10 +1947,10 @@
       <c r="F7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="55"/>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="14">
       <c r="A8" s="4"/>
@@ -1985,33 +1979,33 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47" t="s">
+      <c r="D10" s="59"/>
+      <c r="E10" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="14">
-      <c r="A11" s="43"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -2021,27 +2015,17 @@
         <v>1</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="A10:A11"/>
@@ -2049,6 +2033,16 @@
     <mergeCell ref="C10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:G11"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -2069,7 +2063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -2102,40 +2096,40 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="46"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="14">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="49"/>
     </row>
     <row r="5" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A5" s="10">
@@ -2154,12 +2148,12 @@
         <v>9</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="52"/>
     </row>
     <row r="6" spans="1:10" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="10">
@@ -2178,10 +2172,10 @@
       <c r="F6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="57"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="52"/>
     </row>
     <row r="7" spans="1:10" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="10">
@@ -2200,20 +2194,20 @@
       <c r="F7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="55"/>
     </row>
     <row r="8" spans="1:10" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="10">
         <v>4</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="72" t="s">
-        <v>115</v>
+        <v>111</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>112</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>13</v>
@@ -2222,12 +2216,12 @@
       <c r="F8" s="31">
         <v>0</v>
       </c>
-      <c r="G8" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="59"/>
+      <c r="G8" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="52"/>
     </row>
     <row r="9" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A9" s="10">
@@ -2246,10 +2240,10 @@
         <v>70</v>
       </c>
       <c r="F9" s="19"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="62"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="55"/>
     </row>
     <row r="10" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A10" s="10">
@@ -2266,10 +2260,10 @@
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="19"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="62"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="55"/>
     </row>
     <row r="11" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A11" s="10">
@@ -2286,10 +2280,10 @@
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="62"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A12" s="10">
@@ -2306,10 +2300,10 @@
       <c r="F12" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="62"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="55"/>
     </row>
     <row r="13" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A13" s="10">
@@ -2326,10 +2320,10 @@
       <c r="F13" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="62"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
     </row>
     <row r="14" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A14" s="10">
@@ -2346,10 +2340,10 @@
       <c r="F14" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="62"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
     </row>
     <row r="15" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A15" s="10">
@@ -2366,10 +2360,10 @@
       <c r="F15" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="60"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="62"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="55"/>
     </row>
     <row r="16" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A16" s="10">
@@ -2386,10 +2380,10 @@
       <c r="F16" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="60"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="62"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="55"/>
     </row>
     <row r="17" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A17" s="10">
@@ -2406,10 +2400,10 @@
       <c r="F17" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="60"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="62"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="55"/>
     </row>
     <row r="18" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A18" s="10">
@@ -2426,10 +2420,10 @@
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="28"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="62"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="55"/>
     </row>
     <row r="19" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A19" s="10">
@@ -2446,10 +2440,10 @@
       <c r="F19" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="60"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="62"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="55"/>
     </row>
     <row r="20" spans="1:10" s="1" customFormat="1" ht="14">
       <c r="A20" s="4"/>
@@ -2478,33 +2472,33 @@
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="47" t="s">
+      <c r="D22" s="59"/>
+      <c r="E22" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" ht="14">
-      <c r="A23" s="43"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -2514,22 +2508,28 @@
         <v>1</v>
       </c>
       <c r="B24" s="9"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="40"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:G23"/>
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:J4"/>
@@ -2543,17 +2543,11 @@
     <mergeCell ref="G13:J13"/>
     <mergeCell ref="G14:J14"/>
     <mergeCell ref="G8:J8"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:G23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -2573,10 +2567,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView topLeftCell="B42" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="B39" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -2608,40 +2602,40 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="46"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="14">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="49"/>
     </row>
     <row r="5" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A5" s="10">
@@ -2660,12 +2654,12 @@
         <v>9</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="52"/>
     </row>
     <row r="6" spans="1:10" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="10">
@@ -2682,12 +2676,12 @@
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="52"/>
     </row>
     <row r="7" spans="1:10" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="10">
@@ -2704,12 +2698,12 @@
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="21"/>
-      <c r="G7" s="57" t="s">
+      <c r="G7" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="52"/>
     </row>
     <row r="8" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A8" s="10">
@@ -2726,10 +2720,10 @@
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="59"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="52"/>
     </row>
     <row r="9" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A9" s="10">
@@ -2746,10 +2740,10 @@
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="19"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="52"/>
     </row>
     <row r="10" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A10" s="10">
@@ -2766,10 +2760,10 @@
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="19"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="59"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="52"/>
     </row>
     <row r="11" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A11" s="10">
@@ -2786,17 +2780,17 @@
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="21"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="59"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="52"/>
     </row>
     <row r="12" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A12" s="10">
         <v>8</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>12</v>
@@ -2806,10 +2800,10 @@
       </c>
       <c r="E12" s="30"/>
       <c r="F12" s="21"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="59"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="52"/>
     </row>
     <row r="13" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A13" s="10">
@@ -2826,10 +2820,10 @@
       </c>
       <c r="E13" s="30"/>
       <c r="F13" s="21"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="52"/>
     </row>
     <row r="14" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A14" s="10">
@@ -2846,10 +2840,10 @@
       <c r="F14" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="57"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="59"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="52"/>
     </row>
     <row r="15" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A15" s="10">
@@ -2866,10 +2860,10 @@
       <c r="F15" s="21">
         <v>0</v>
       </c>
-      <c r="G15" s="57"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="59"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="52"/>
     </row>
     <row r="16" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A16" s="10">
@@ -2886,10 +2880,10 @@
       <c r="F16" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="57"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="59"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="52"/>
     </row>
     <row r="17" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A17" s="10">
@@ -2905,7 +2899,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="15"/>
@@ -2918,16 +2912,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="22"/>
@@ -2950,10 +2944,10 @@
       </c>
       <c r="E19" s="30"/>
       <c r="F19" s="28"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="59"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="52"/>
     </row>
     <row r="20" spans="1:10" s="18" customFormat="1" ht="14">
       <c r="A20" s="10">
@@ -2970,10 +2964,10 @@
       <c r="F20" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="57"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="59"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="52"/>
     </row>
     <row r="21" spans="1:10" s="1" customFormat="1" ht="14">
       <c r="A21" s="4"/>
@@ -3002,33 +2996,33 @@
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="47" t="s">
+      <c r="D23" s="59"/>
+      <c r="E23" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1" ht="14">
-      <c r="A24" s="43"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -3038,11 +3032,11 @@
         <v>1</v>
       </c>
       <c r="B25" s="9"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="40"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="57"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -3322,7 +3316,7 @@
     </row>
     <row r="57" spans="3:7">
       <c r="C57" s="37" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D57" s="36"/>
       <c r="E57" s="36"/>
@@ -3331,7 +3325,7 @@
     </row>
     <row r="58" spans="3:7">
       <c r="C58" s="37" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D58" s="36"/>
       <c r="E58" s="36"/>
@@ -3340,7 +3334,7 @@
     </row>
     <row r="59" spans="3:7">
       <c r="C59" s="37" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D59" s="36"/>
       <c r="E59" s="36"/>
@@ -3349,7 +3343,7 @@
     </row>
     <row r="60" spans="3:7">
       <c r="C60" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D60" s="36"/>
       <c r="E60" s="36"/>
@@ -3358,7 +3352,7 @@
     </row>
     <row r="61" spans="3:7">
       <c r="C61" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D61" s="36"/>
       <c r="E61" s="36"/>
@@ -3366,9 +3360,7 @@
       <c r="G61" s="36"/>
     </row>
     <row r="62" spans="3:7">
-      <c r="C62" s="37" t="s">
-        <v>106</v>
-      </c>
+      <c r="C62" s="37"/>
       <c r="D62" s="36"/>
       <c r="E62" s="36"/>
       <c r="F62" s="36"/>
@@ -3431,7 +3423,7 @@
       <c r="G70" s="36"/>
     </row>
     <row r="71" spans="3:7">
-      <c r="C71" s="37"/>
+      <c r="C71" s="36"/>
       <c r="D71" s="36"/>
       <c r="E71" s="36"/>
       <c r="F71" s="36"/>
@@ -3451,20 +3443,19 @@
       <c r="F73" s="36"/>
       <c r="G73" s="36"/>
     </row>
-    <row r="74" spans="3:7">
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="36"/>
-    </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:G24"/>
     <mergeCell ref="G14:J14"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:J4"/>
@@ -3477,17 +3468,11 @@
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="G12:J12"/>
     <mergeCell ref="G13:J13"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:G24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -3542,40 +3527,40 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="46"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="14">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="49"/>
     </row>
     <row r="5" spans="1:12" s="18" customFormat="1" ht="14">
       <c r="A5" s="10">
@@ -3594,12 +3579,12 @@
         <v>9</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="52"/>
     </row>
     <row r="6" spans="1:12" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="10">
@@ -3618,12 +3603,12 @@
       <c r="F6" s="21">
         <v>2</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="52"/>
     </row>
     <row r="7" spans="1:12" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="10">
@@ -3640,12 +3625,12 @@
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="21"/>
-      <c r="G7" s="63" t="s">
+      <c r="G7" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66"/>
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
     </row>
@@ -3656,10 +3641,10 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="68"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="69"/>
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
     </row>
@@ -3672,95 +3657,101 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="68"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="69"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47" t="s">
+      <c r="D10" s="59"/>
+      <c r="E10" s="60" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="33"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="68"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="69"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="14">
-      <c r="A11" s="43"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="48"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="61"/>
       <c r="F11" s="34"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="68"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="14">
       <c r="A12" s="8">
         <v>1</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
       <c r="E12" s="5"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="68"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="69"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="G13" s="66"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="68"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="69"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="G14" s="66"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="68"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="69"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="G15" s="66"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="68"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="69"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="G16" s="66"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="68"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="69"/>
     </row>
     <row r="17" spans="7:10">
-      <c r="G17" s="66"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="68"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="69"/>
     </row>
     <row r="18" spans="7:10">
-      <c r="G18" s="69"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="71"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G7:J18"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:J4"/>
     <mergeCell ref="G5:J5"/>
@@ -3770,12 +3761,6 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G7:J18"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -3829,40 +3814,40 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="46"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="14">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="49"/>
     </row>
     <row r="5" spans="1:12" s="18" customFormat="1" ht="14">
       <c r="A5" s="10">
@@ -3881,12 +3866,12 @@
         <v>9</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="52"/>
     </row>
     <row r="6" spans="1:12" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="10">
@@ -3903,12 +3888,12 @@
       <c r="F6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="52"/>
     </row>
     <row r="7" spans="1:12" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="10">
@@ -3925,12 +3910,12 @@
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="21"/>
-      <c r="G7" s="63" t="s">
+      <c r="G7" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66"/>
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
     </row>
@@ -3941,10 +3926,10 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="68"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="69"/>
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
     </row>
@@ -3957,95 +3942,101 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="68"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="69"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47" t="s">
+      <c r="D10" s="59"/>
+      <c r="E10" s="60" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="33"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="68"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="69"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="14">
-      <c r="A11" s="43"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="48"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="61"/>
       <c r="F11" s="34"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="68"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="14">
       <c r="A12" s="8">
         <v>1</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
       <c r="E12" s="5"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="68"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="69"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="G13" s="66"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="68"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="69"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="G14" s="66"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="68"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="69"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="G15" s="66"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="68"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="69"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="G16" s="66"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="68"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="69"/>
     </row>
     <row r="17" spans="7:10">
-      <c r="G17" s="66"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="68"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="69"/>
     </row>
     <row r="18" spans="7:10">
-      <c r="G18" s="69"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="71"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G7:J18"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:D11"/>
@@ -4055,12 +4046,6 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G7:J18"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -4114,40 +4099,40 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="46"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="14">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="49"/>
     </row>
     <row r="5" spans="1:12" s="18" customFormat="1" ht="14">
       <c r="A5" s="10">
@@ -4166,12 +4151,12 @@
         <v>9</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="52"/>
     </row>
     <row r="6" spans="1:12" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="10">
@@ -4188,12 +4173,12 @@
       <c r="F6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="52"/>
     </row>
     <row r="7" spans="1:12" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="10">
@@ -4210,12 +4195,12 @@
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="21"/>
-      <c r="G7" s="63" t="s">
+      <c r="G7" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66"/>
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
     </row>
@@ -4226,10 +4211,10 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="68"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="69"/>
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
     </row>
@@ -4242,110 +4227,110 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="68"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="69"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47" t="s">
+      <c r="D10" s="59"/>
+      <c r="E10" s="60" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="33"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="68"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="69"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="14">
-      <c r="A11" s="43"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="48"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="61"/>
       <c r="F11" s="34"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="68"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="14">
       <c r="A12" s="8">
         <v>1</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
       <c r="E12" s="5"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="68"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="69"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="G13" s="66"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="68"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="69"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="G14" s="66"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="68"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="69"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="G15" s="66"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="68"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="69"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="G16" s="66"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="68"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="69"/>
     </row>
     <row r="17" spans="7:10">
-      <c r="G17" s="66"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="68"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="69"/>
     </row>
     <row r="18" spans="7:10">
-      <c r="G18" s="69"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="71"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G7:J18"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G7:J18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -4399,40 +4384,40 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="46"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="14">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="49"/>
     </row>
     <row r="5" spans="1:12" s="18" customFormat="1" ht="14">
       <c r="A5" s="10">
@@ -4451,12 +4436,12 @@
         <v>9</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="52"/>
     </row>
     <row r="6" spans="1:12" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="10">
@@ -4473,12 +4458,12 @@
       <c r="F6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="52"/>
     </row>
     <row r="7" spans="1:12" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="10">
@@ -4495,12 +4480,12 @@
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="21"/>
-      <c r="G7" s="63" t="s">
+      <c r="G7" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66"/>
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
     </row>
@@ -4511,10 +4496,10 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="68"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="69"/>
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
     </row>
@@ -4527,110 +4512,110 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="68"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="69"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47" t="s">
+      <c r="D10" s="59"/>
+      <c r="E10" s="60" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="33"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="68"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="69"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="14">
-      <c r="A11" s="43"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="48"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="61"/>
       <c r="F11" s="34"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="68"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="14">
       <c r="A12" s="8">
         <v>1</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
       <c r="E12" s="5"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="68"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="69"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="G13" s="66"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="68"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="69"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="G14" s="66"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="68"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="69"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="G15" s="66"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="68"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="69"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="G16" s="66"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="68"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="69"/>
     </row>
     <row r="17" spans="7:10">
-      <c r="G17" s="66"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="68"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="69"/>
     </row>
     <row r="18" spans="7:10">
-      <c r="G18" s="69"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="71"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G7:J18"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G7:J18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -4679,40 +4664,40 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="46"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="49"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="10">
@@ -4731,12 +4716,12 @@
         <v>9</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="52"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="10">
@@ -4753,12 +4738,12 @@
       <c r="F6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="52"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4"/>
@@ -4779,27 +4764,27 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47" t="s">
+      <c r="D9" s="59"/>
+      <c r="E9" s="60" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="43"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="48"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="61"/>
       <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:10">
@@ -4807,18 +4792,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
       <c r="E11" s="5"/>
       <c r="F11" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:J4"/>
     <mergeCell ref="G5:J5"/>
@@ -4828,6 +4808,11 @@
     <mergeCell ref="C9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -4871,7 +4856,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -4881,40 +4866,40 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="46"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="14">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="49"/>
     </row>
     <row r="5" spans="1:12" s="18" customFormat="1" ht="14">
       <c r="A5" s="10">
@@ -4933,12 +4918,12 @@
         <v>9</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="52"/>
     </row>
     <row r="6" spans="1:12" s="18" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="10">
@@ -4955,12 +4940,12 @@
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="63" t="s">
+      <c r="G6" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="66"/>
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
     </row>
@@ -4971,10 +4956,10 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="68"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="69"/>
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
     </row>
@@ -4987,95 +4972,101 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="68"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="69"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47" t="s">
+      <c r="D9" s="59"/>
+      <c r="E9" s="60" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="33"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="68"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="69"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="14">
-      <c r="A10" s="43"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="48"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="61"/>
       <c r="F10" s="34"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="68"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="69"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="14">
       <c r="A11" s="8">
         <v>1</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
       <c r="E11" s="5"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="68"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="G12" s="66"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="68"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="69"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="G13" s="66"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="68"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="69"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="G14" s="66"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="68"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="69"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="G15" s="66"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="68"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="69"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="G16" s="66"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="68"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="69"/>
     </row>
     <row r="17" spans="7:10">
-      <c r="G17" s="69"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="71"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G6:J17"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:J4"/>
@@ -5084,12 +5075,6 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="G6:J17"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
